--- a/data/awardwinners.xlsx
+++ b/data/awardwinners.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pacosun/Downloads/csvdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pacosun/Downloads/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67AD921-7C3D-DE49-BED9-DC79DC58057E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C82346-5E5A-0F4A-9717-83B803E900A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9040" yWindow="2320" windowWidth="33500" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -979,10 +979,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1340,15 +1340,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J129" sqref="J129"/>
+    <sheetView tabSelected="1" zoomScale="211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1361,12 +1362,12 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B2" t="s">
@@ -1375,12 +1376,12 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B3" t="s">
@@ -1389,12 +1390,12 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B4" t="s">
@@ -1403,12 +1404,12 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B5" t="s">
@@ -1417,12 +1418,12 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>31.1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B6" t="s">
@@ -1431,12 +1432,12 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>13.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B7" t="s">
@@ -1445,12 +1446,12 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B8" t="s">
@@ -1459,12 +1460,12 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B9" t="s">
@@ -1473,12 +1474,12 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B10" t="s">
@@ -1487,12 +1488,12 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B11" t="s">
@@ -1501,12 +1502,12 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>31.4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B12" t="s">
@@ -1515,12 +1516,12 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B13" t="s">
@@ -1529,12 +1530,12 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>10.9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B14" t="s">
@@ -1543,12 +1544,12 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">
@@ -1557,12 +1558,12 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B16" t="s">
@@ -1571,12 +1572,12 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B17" t="s">
@@ -1585,12 +1586,12 @@
       <c r="C17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>32.1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B18" t="s">
@@ -1599,12 +1600,12 @@
       <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>15.4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B19" t="s">
@@ -1613,12 +1614,12 @@
       <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>8.9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B20" t="s">
@@ -1627,12 +1628,12 @@
       <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B21" t="s">
@@ -1641,12 +1642,12 @@
       <c r="C21" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B22" t="s">
@@ -1655,12 +1656,12 @@
       <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B23" t="s">
@@ -1669,12 +1670,12 @@
       <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B24" t="s">
@@ -1683,12 +1684,12 @@
       <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>13.9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B25" t="s">
@@ -1697,12 +1698,12 @@
       <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B26" t="s">
@@ -1711,12 +1712,12 @@
       <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B27" t="s">
@@ -1725,12 +1726,12 @@
       <c r="C27" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B28" t="s">
@@ -1739,12 +1740,12 @@
       <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B29" t="s">
@@ -1753,12 +1754,12 @@
       <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>30.7</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B30" t="s">
@@ -1767,12 +1768,12 @@
       <c r="C30" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>13.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B31" t="s">
@@ -1781,12 +1782,12 @@
       <c r="C31" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>11.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B32" t="s">
@@ -1795,12 +1796,12 @@
       <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B33" t="s">
@@ -1809,12 +1810,12 @@
       <c r="C33" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B34" t="s">
@@ -1823,12 +1824,12 @@
       <c r="C34" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
@@ -1837,12 +1838,12 @@
       <c r="C35" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>35.4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B36" t="s">
@@ -1851,12 +1852,12 @@
       <c r="C36" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>12.7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B37" t="s">
@@ -1865,12 +1866,12 @@
       <c r="C37" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>10.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B38" t="s">
@@ -1879,12 +1880,12 @@
       <c r="C38" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B39" t="s">
@@ -1893,12 +1894,12 @@
       <c r="C39" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B40" t="s">
@@ -1907,12 +1908,12 @@
       <c r="C40" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B41" t="s">
@@ -1921,12 +1922,12 @@
       <c r="C41" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>31.6</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B42" t="s">
@@ -1935,12 +1936,12 @@
       <c r="C42" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>12.8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B43" t="s">
@@ -1949,12 +1950,12 @@
       <c r="C43" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>11.6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B44" t="s">
@@ -1963,12 +1964,12 @@
       <c r="C44" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B45" t="s">
@@ -1977,12 +1978,12 @@
       <c r="C45" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B46" t="s">
@@ -1991,12 +1992,12 @@
       <c r="C46" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B47" t="s">
@@ -2005,12 +2006,12 @@
       <c r="C47" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B48" t="s">
@@ -2019,12 +2020,12 @@
       <c r="C48" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>14.2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B49" t="s">
@@ -2033,12 +2034,12 @@
       <c r="C49" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>11.6</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B50" t="s">
@@ -2047,12 +2048,12 @@
       <c r="C50" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B51" t="s">
@@ -2061,12 +2062,12 @@
       <c r="C51" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B52" t="s">
@@ -2075,12 +2076,12 @@
       <c r="C52" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B53" t="s">
@@ -2089,12 +2090,12 @@
       <c r="C53" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>30.2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B54" t="s">
@@ -2103,12 +2104,12 @@
       <c r="C54" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>13.8</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B55" t="s">
@@ -2117,12 +2118,12 @@
       <c r="C55" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B56" t="s">
@@ -2131,12 +2132,12 @@
       <c r="C56" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B57" t="s">
@@ -2145,12 +2146,12 @@
       <c r="C57" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B58" t="s">
@@ -2159,12 +2160,12 @@
       <c r="C58" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B59" t="s">
@@ -2173,12 +2174,12 @@
       <c r="C59" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>30.1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B60" t="s">
@@ -2187,12 +2188,12 @@
       <c r="C60" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>13.2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B61" t="s">
@@ -2201,12 +2202,12 @@
       <c r="C61" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B62" t="s">
@@ -2215,12 +2216,12 @@
       <c r="C62" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B63" t="s">
@@ -2229,12 +2230,12 @@
       <c r="C63" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B64" t="s">
@@ -2243,12 +2244,12 @@
       <c r="C64" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B65" t="s">
@@ -2257,12 +2258,12 @@
       <c r="C65" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>27.7</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B66" t="s">
@@ -2271,12 +2272,12 @@
       <c r="C66" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>15.2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
@@ -2285,12 +2286,12 @@
       <c r="C67" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>11.4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
@@ -2299,12 +2300,12 @@
       <c r="C68" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B69" t="s">
@@ -2313,12 +2314,12 @@
       <c r="C69" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B70" t="s">
@@ -2327,12 +2328,12 @@
       <c r="C70" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B71" t="s">
@@ -2341,12 +2342,12 @@
       <c r="C71" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B72" t="s">
@@ -2355,12 +2356,12 @@
       <c r="C72" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>14.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B73" t="s">
@@ -2369,12 +2370,12 @@
       <c r="C73" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>11.7</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B74" t="s">
@@ -2383,12 +2384,12 @@
       <c r="C74" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B75" t="s">
@@ -2397,12 +2398,12 @@
       <c r="C75" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -2411,12 +2412,12 @@
       <c r="C76" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B77" t="s">
@@ -2425,12 +2426,12 @@
       <c r="C77" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <v>28.7</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B78" t="s">
@@ -2439,12 +2440,12 @@
       <c r="C78" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="1">
         <v>12.4</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B79" t="s">
@@ -2453,12 +2454,12 @@
       <c r="C79" t="s">
         <v>36</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <v>11.1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B80" t="s">
@@ -2467,12 +2468,12 @@
       <c r="C80" t="s">
         <v>39</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B81" t="s">
@@ -2481,12 +2482,12 @@
       <c r="C81" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B82" t="s">
@@ -2495,12 +2496,12 @@
       <c r="C82" t="s">
         <v>40</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B83" t="s">
@@ -2509,12 +2510,12 @@
       <c r="C83" t="s">
         <v>29</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B84" t="s">
@@ -2523,12 +2524,12 @@
       <c r="C84" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>13.6</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B85" t="s">
@@ -2537,12 +2538,12 @@
       <c r="C85" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <v>10.7</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B86" t="s">
@@ -2551,12 +2552,12 @@
       <c r="C86" t="s">
         <v>42</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B87" t="s">
@@ -2565,12 +2566,12 @@
       <c r="C87" t="s">
         <v>43</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B88" t="s">
@@ -2579,12 +2580,12 @@
       <c r="C88" t="s">
         <v>44</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B89" t="s">
@@ -2593,12 +2594,12 @@
       <c r="C89" t="s">
         <v>45</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="1">
         <v>28.1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B90" t="s">
@@ -2607,12 +2608,12 @@
       <c r="C90" t="s">
         <v>41</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B91" t="s">
@@ -2621,12 +2622,12 @@
       <c r="C91" t="s">
         <v>23</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="1">
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B92" t="s">
@@ -2635,12 +2636,12 @@
       <c r="C92" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B93" t="s">
@@ -2649,12 +2650,12 @@
       <c r="C93" t="s">
         <v>43</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B94" t="s">
@@ -2663,12 +2664,12 @@
       <c r="C94" t="s">
         <v>46</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B95" t="s">
@@ -2677,12 +2678,12 @@
       <c r="C95" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="1">
         <v>30.1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B96" t="s">
@@ -2691,12 +2692,12 @@
       <c r="C96" t="s">
         <v>47</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="1">
         <v>14.8</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B97" t="s">
@@ -2705,12 +2706,12 @@
       <c r="C97" t="s">
         <v>36</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="1">
         <v>11.7</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B98" t="s">
@@ -2719,12 +2720,12 @@
       <c r="C98" t="s">
         <v>29</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B99" t="s">
@@ -2733,12 +2734,12 @@
       <c r="C99" t="s">
         <v>45</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B100" t="s">
@@ -2747,12 +2748,12 @@
       <c r="C100" t="s">
         <v>48</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B101" t="s">
@@ -2761,12 +2762,12 @@
       <c r="C101" t="s">
         <v>45</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="1">
         <v>31.6</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B102" t="s">
@@ -2775,12 +2776,12 @@
       <c r="C102" t="s">
         <v>49</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="1">
         <v>14.1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B103" t="s">
@@ -2789,12 +2790,12 @@
       <c r="C103" t="s">
         <v>50</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="1">
         <v>11.2</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B104" t="s">
@@ -2803,12 +2804,12 @@
       <c r="C104" t="s">
         <v>29</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B105" t="s">
@@ -2817,12 +2818,12 @@
       <c r="C105" t="s">
         <v>50</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B106" t="s">
@@ -2831,12 +2832,12 @@
       <c r="C106" t="s">
         <v>51</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B107" t="s">
@@ -2845,12 +2846,12 @@
       <c r="C107" t="s">
         <v>50</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="1">
         <v>30.4</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B108" t="s">
@@ -2859,12 +2860,12 @@
       <c r="C108" t="s">
         <v>47</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B109" t="s">
@@ -2873,12 +2874,12 @@
       <c r="C109" t="s">
         <v>45</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="1">
         <v>10.3</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B110" t="s">
@@ -2887,12 +2888,12 @@
       <c r="C110" t="s">
         <v>39</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B111" t="s">
@@ -2901,12 +2902,12 @@
       <c r="C111" t="s">
         <v>52</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B112" t="s">
@@ -2915,12 +2916,12 @@
       <c r="C112" t="s">
         <v>53</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B113" t="s">
@@ -2929,12 +2930,12 @@
       <c r="C113" t="s">
         <v>50</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="1">
         <v>36.1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B114" t="s">
@@ -2943,12 +2944,12 @@
       <c r="C114" t="s">
         <v>47</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="1">
         <v>15.6</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B115" t="s">
@@ -2957,12 +2958,12 @@
       <c r="C115" t="s">
         <v>45</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="1">
         <v>10.7</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B116" t="s">
@@ -2971,12 +2972,12 @@
       <c r="C116" t="s">
         <v>19</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B117" t="s">
@@ -2985,12 +2986,12 @@
       <c r="C117" t="s">
         <v>52</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B118" t="s">
@@ -2999,12 +3000,12 @@
       <c r="C118" t="s">
         <v>54</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B119" t="s">
@@ -3013,12 +3014,12 @@
       <c r="C119" t="s">
         <v>50</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="1">
         <v>34.299999999999997</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B120" t="s">
@@ -3027,12 +3028,12 @@
       <c r="C120" t="s">
         <v>47</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="1">
         <v>15.2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B121" t="s">
@@ -3041,12 +3042,12 @@
       <c r="C121" t="s">
         <v>19</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="1">
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B122" t="s">
@@ -3055,12 +3056,12 @@
       <c r="C122" t="s">
         <v>52</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B123" t="s">
@@ -3069,12 +3070,12 @@
       <c r="C123" t="s">
         <v>55</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B124" t="s">
@@ -3083,12 +3084,12 @@
       <c r="C124" t="s">
         <v>56</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B125" t="s">
@@ -3097,12 +3098,12 @@
       <c r="C125" t="s">
         <v>43</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B126" t="s">
@@ -3111,12 +3112,12 @@
       <c r="C126" t="s">
         <v>57</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="1">
         <v>14.3</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B127" t="s">
@@ -3125,12 +3126,12 @@
       <c r="C127" t="s">
         <v>45</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="1">
         <v>11.7</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B128" t="s">
@@ -3139,12 +3140,12 @@
       <c r="C128" t="s">
         <v>43</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B129" t="s">
@@ -3153,12 +3154,12 @@
       <c r="C129" t="s">
         <v>55</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B130" t="s">
@@ -3167,12 +3168,12 @@
       <c r="C130" t="s">
         <v>58</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B131" t="s">
@@ -3181,12 +3182,12 @@
       <c r="C131" t="s">
         <v>59</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="1">
         <v>30.6</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B132" t="s">
@@ -3195,12 +3196,12 @@
       <c r="C132" t="s">
         <v>60</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="1">
         <v>14.7</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B133" t="s">
@@ -3209,12 +3210,12 @@
       <c r="C133" t="s">
         <v>23</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="1">
         <v>10.8</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B134" t="s">
@@ -3222,7 +3223,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B135" t="s">
@@ -3231,12 +3232,12 @@
       <c r="C135" t="s">
         <v>59</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B136" t="s">
@@ -3245,12 +3246,12 @@
       <c r="C136" t="s">
         <v>61</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B137" t="s">
@@ -3259,12 +3260,12 @@
       <c r="C137" t="s">
         <v>59</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="1">
         <v>33.1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B138" t="s">
@@ -3273,12 +3274,12 @@
       <c r="C138" t="s">
         <v>62</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="1">
         <v>12.3</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B139" t="s">
@@ -3287,7 +3288,7 @@
       <c r="C139" t="s">
         <v>50</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="1">
         <v>10.7</v>
       </c>
     </row>
